--- a/H2495_LF.xlsx
+++ b/H2495_LF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drsun\Documents\MyPython\PyPHAST\H2495_FRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drsun\Documents\MyPython\PyPHAST\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D12D568-1F1B-4C49-98FB-9B7F5ADAE0D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3418742-7C53-4028-9EA7-22CEE7EF58D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15960" windowWidth="29040" windowHeight="15840" xr2:uid="{E5E48A50-3A73-47E3-8087-451B37A1C471}"/>
+    <workbookView xWindow="-28800" yWindow="16080" windowWidth="43200" windowHeight="23310" xr2:uid="{E5E48A50-3A73-47E3-8087-451B37A1C471}"/>
   </bookViews>
   <sheets>
     <sheet name="RESULTS - Hole size" sheetId="1" r:id="rId1"/>
@@ -207,13 +207,13 @@
     <t>D[mm]</t>
   </si>
   <si>
-    <t>s3</t>
-  </si>
-  <si>
-    <t>s8</t>
-  </si>
-  <si>
-    <t>s9</t>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
   </si>
 </sst>
 </file>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347B7273-5D5F-4B0F-B393-45CAFDC2EDA1}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
